--- a/src/main/resources/SpringEL_Rule.xlsx
+++ b/src/main/resources/SpringEL_Rule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\672845\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drools and SpringEl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,13 @@
     <t>EST</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
     <t>EQ</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>location</t>
   </si>
   <si>
     <t>timeZone</t>
@@ -408,14 +408,14 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
